--- a/result/NCDC_weather_data/stations_imputed/59431099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59431099999.xlsx
@@ -578,7 +578,9 @@
       <c r="P2" t="n">
         <v>125.24</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0.002900617283950617</v>
+      </c>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
